--- a/data-dictionaries/dd-nptrends-year-02-puf.xlsx
+++ b/data-dictionaries/dd-nptrends-year-02-puf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdlec\Dropbox (Personal)\00 - URBAN\00-GITHUB\nccs-nptrends\data-dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739A8B7-87B6-4CF4-98C0-44A1E4C5D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A7F2E2-64BC-4E71-B76A-4DE6C3ACFE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1215" windowWidth="28275" windowHeight="18495" xr2:uid="{5572D8ED-434A-412A-A007-947EB1DCFE87}"/>
+    <workbookView xWindow="3120" yWindow="3105" windowWidth="28275" windowHeight="18495" xr2:uid="{5572D8ED-434A-412A-A007-947EB1DCFE87}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="2" r:id="rId1"/>
@@ -48,16 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="763">
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="759">
   <si>
     <t/>
   </si>
@@ -1184,15 +1175,6 @@
     <t xml:space="preserve">add noise to this variable to anonymize? </t>
   </si>
   <si>
-    <t>survey question sub</t>
-  </si>
-  <si>
-    <t>survey question full</t>
-  </si>
-  <si>
-    <t>survey question response categories (kindof)</t>
-  </si>
-  <si>
     <t>DD VARIABLE</t>
   </si>
   <si>
@@ -1205,12 +1187,6 @@
     <t>qualtrix</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>r script</t>
-  </si>
-  <si>
     <t>Respondent last name</t>
   </si>
   <si>
@@ -2258,15 +2234,6 @@
     <t>FndRaise_Corp.Found_Grnt_Rcv</t>
   </si>
   <si>
-    <t>survey_question</t>
-  </si>
-  <si>
-    <t>survey_question_response</t>
-  </si>
-  <si>
-    <t>survey_question_sub</t>
-  </si>
-  <si>
     <t>variable_name</t>
   </si>
   <si>
@@ -2337,6 +2304,27 @@
   </si>
   <si>
     <t xml:space="preserve">is the variable in the public use file? </t>
+  </si>
+  <si>
+    <t>question_full</t>
+  </si>
+  <si>
+    <t>question_prompt</t>
+  </si>
+  <si>
+    <t>question_response</t>
+  </si>
+  <si>
+    <t>survey question full (prompt + response category)</t>
+  </si>
+  <si>
+    <t>survey question prompt text</t>
+  </si>
+  <si>
+    <t>response category for the question</t>
+  </si>
+  <si>
+    <t>nccs staff</t>
   </si>
 </sst>
 </file>
@@ -2414,13 +2402,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2429,7 +2411,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2477,14 +2465,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8B5ADAA7-6EE0-4C83-BDD5-CAADE4183613}" uniqueName="1" name="question_order" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{30157380-46AE-4F6E-8CF2-AB0167484CB0}" uniqueName="10" name="variable_name" queryTableFieldId="10" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{2F2BDCF7-4937-44B5-9D5A-B5EDF6E5270F}" uniqueName="13" name="variable_label" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{2F2BDCF7-4937-44B5-9D5A-B5EDF6E5270F}" uniqueName="13" name="variable_label" queryTableFieldId="14" dataDxfId="5"/>
     <tableColumn id="12" xr3:uid="{DDD8B96D-0B9A-4EFB-93A4-500DEA431A02}" uniqueName="12" name="type" queryTableFieldId="13"/>
-    <tableColumn id="7" xr3:uid="{962C062B-0082-4BD9-91EB-4C8BA69EB581}" uniqueName="7" name="in_puf?" queryTableFieldId="21" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{E274716A-6130-4BB3-8230-5952D26A87D4}" uniqueName="9" name="noise_added?" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{962C062B-0082-4BD9-91EB-4C8BA69EB581}" uniqueName="7" name="in_puf?" queryTableFieldId="21" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E274716A-6130-4BB3-8230-5952D26A87D4}" uniqueName="9" name="noise_added?" queryTableFieldId="9" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{9C910C13-65D4-4D56-A901-A8CA4A6D3F1E}" uniqueName="6" name="question_group" queryTableFieldId="6"/>
-    <tableColumn id="3" xr3:uid="{2652D4A6-7529-4D89-8347-DDEDE8A9552B}" uniqueName="3" name="survey_question" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{EFF0F207-748B-4783-ABBA-79486F136959}" uniqueName="4" name="survey_question_sub" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CA8BED3D-5A5E-4C7F-B2A5-BFD5F716A2F0}" uniqueName="5" name="survey_question_response" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2652D4A6-7529-4D89-8347-DDEDE8A9552B}" uniqueName="3" name="question_full" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EFF0F207-748B-4783-ABBA-79486F136959}" uniqueName="4" name="question_prompt" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CA8BED3D-5A5E-4C7F-B2A5-BFD5F716A2F0}" uniqueName="5" name="question_response" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2791,7 +2779,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2814,34 +2802,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>750</v>
-      </c>
       <c r="G1" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="H1" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="I1" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="J1" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="K1"/>
     </row>
@@ -2850,31 +2838,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="C2" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G2" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2"/>
     </row>
@@ -2883,31 +2871,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="C3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G3" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3"/>
     </row>
@@ -2916,31 +2904,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="C4" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G4" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4"/>
     </row>
@@ -2949,31 +2937,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="C5" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G5" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5"/>
     </row>
@@ -2982,31 +2970,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G6" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6"/>
     </row>
@@ -3015,31 +3003,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7"/>
     </row>
@@ -3048,31 +3036,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G8" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8"/>
     </row>
@@ -3081,31 +3069,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G9" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9"/>
     </row>
@@ -3114,31 +3102,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G10" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10"/>
     </row>
@@ -3147,31 +3135,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C11" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G11" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
       </c>
       <c r="K11"/>
     </row>
@@ -3180,31 +3168,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C12" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K12"/>
     </row>
@@ -3213,31 +3201,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C13" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
         <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
       </c>
       <c r="K13"/>
     </row>
@@ -3246,31 +3234,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K14"/>
     </row>
@@ -3279,31 +3267,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D15" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15"/>
     </row>
@@ -3312,31 +3300,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C16" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D16" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H16" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K16"/>
     </row>
@@ -3345,31 +3333,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="D17" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
         <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
       </c>
       <c r="K17"/>
     </row>
@@ -3378,31 +3366,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C18" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D18" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K18"/>
     </row>
@@ -3411,31 +3399,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D19" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H19" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="K19"/>
     </row>
@@ -3444,31 +3432,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C20" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="D20" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K20"/>
     </row>
@@ -3477,31 +3465,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C21" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="D21" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21"/>
     </row>
@@ -3510,31 +3498,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C22" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="D22" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K22"/>
     </row>
@@ -3543,31 +3531,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C23" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="D23" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H23" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K23"/>
     </row>
@@ -3576,31 +3564,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C24" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D24" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24"/>
     </row>
@@ -3609,31 +3597,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C25" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D25" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H25" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K25"/>
     </row>
@@ -3642,31 +3630,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C26" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="D26" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K26"/>
     </row>
@@ -3675,31 +3663,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C27" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="D27" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27"/>
     </row>
@@ -3708,31 +3696,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C28" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D28" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K28"/>
     </row>
@@ -3741,31 +3729,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D29" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K29"/>
     </row>
@@ -3774,31 +3762,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C30" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D30" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G30" t="s">
         <v>348</v>
       </c>
-      <c r="G30" t="s">
-        <v>351</v>
-      </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K30"/>
     </row>
@@ -3807,31 +3795,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C31" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D31" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G31" t="s">
         <v>348</v>
       </c>
-      <c r="G31" t="s">
-        <v>351</v>
-      </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
         <v>48</v>
-      </c>
-      <c r="J31" t="s">
-        <v>51</v>
       </c>
       <c r="K31"/>
     </row>
@@ -3840,31 +3828,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C32" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D32" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K32"/>
     </row>
@@ -3873,31 +3861,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C33" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D33" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K33"/>
     </row>
@@ -3906,31 +3894,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G34" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34"/>
     </row>
@@ -3939,31 +3927,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C35" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D35" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K35"/>
     </row>
@@ -3972,31 +3960,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D36" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
         <v>58</v>
-      </c>
-      <c r="J36" t="s">
-        <v>61</v>
       </c>
       <c r="K36"/>
     </row>
@@ -4005,31 +3993,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D37" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K37"/>
     </row>
@@ -4038,31 +4026,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C38" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D38" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K38"/>
     </row>
@@ -4071,31 +4059,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C39" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D39" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K39"/>
     </row>
@@ -4104,31 +4092,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C40" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D40" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K40"/>
     </row>
@@ -4137,31 +4125,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C41" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D41" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K41"/>
     </row>
@@ -4170,31 +4158,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C42" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D42" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>741</v>
+        <v>345</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K42"/>
     </row>
@@ -4203,31 +4191,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C43" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D43" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K43"/>
     </row>
@@ -4236,31 +4224,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D44" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G44" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K44"/>
     </row>
@@ -4269,31 +4257,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C45" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D45" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K45"/>
     </row>
@@ -4302,31 +4290,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D46" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K46"/>
     </row>
@@ -4335,31 +4323,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C47" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D47" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K47"/>
     </row>
@@ -4368,31 +4356,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C48" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D48" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G48" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K48"/>
     </row>
@@ -4401,31 +4389,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C49" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D49" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G49" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K49"/>
     </row>
@@ -4434,31 +4422,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C50" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D50" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G50" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K50"/>
     </row>
@@ -4467,31 +4455,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C51" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D51" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>741</v>
+        <v>345</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G51" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K51"/>
     </row>
@@ -4500,31 +4488,31 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D52" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G52" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K52"/>
     </row>
@@ -4533,31 +4521,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C53" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D53" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G53" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K53"/>
     </row>
@@ -4566,31 +4554,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C54" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D54" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G54" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K54"/>
     </row>
@@ -4599,31 +4587,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C55" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D55" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H55" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K55"/>
     </row>
@@ -4632,31 +4620,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C56" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D56" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G56" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K56"/>
     </row>
@@ -4665,31 +4653,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C57" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D57" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G57" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K57"/>
     </row>
@@ -4698,31 +4686,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C58" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D58" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G58" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K58"/>
     </row>
@@ -4731,31 +4719,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C59" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D59" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G59" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K59"/>
     </row>
@@ -4764,31 +4752,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D60" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G60" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K60"/>
     </row>
@@ -4797,31 +4785,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C61" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D61" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G61" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K61"/>
     </row>
@@ -4830,31 +4818,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="D62" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J62" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K62"/>
     </row>
@@ -4863,31 +4851,31 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="D63" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K63"/>
     </row>
@@ -4896,31 +4884,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C64" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="D64" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G64" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K64"/>
     </row>
@@ -4929,31 +4917,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C65" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D65" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I65" t="s">
+        <v>114</v>
+      </c>
+      <c r="J65" t="s">
         <v>117</v>
-      </c>
-      <c r="J65" t="s">
-        <v>120</v>
       </c>
       <c r="K65"/>
     </row>
@@ -4962,31 +4950,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C66" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D66" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G66" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H66" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="I66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J66" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="K66"/>
     </row>
@@ -4995,31 +4983,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="D67" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G67" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K67"/>
     </row>
@@ -5028,31 +5016,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C68" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D68" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G68" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H68" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J68" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K68"/>
     </row>
@@ -5061,31 +5049,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C69" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D69" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I69" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J69" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K69"/>
     </row>
@@ -5094,31 +5082,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C70" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="D70" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G70" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H70" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="I70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J70" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K70"/>
     </row>
@@ -5127,31 +5115,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C71" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="D71" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G71" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H71" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J71" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K71"/>
     </row>
@@ -5160,31 +5148,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C72" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D72" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G72" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J72" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K72"/>
     </row>
@@ -5193,31 +5181,31 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C73" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D73" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G73" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H73" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I73" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J73" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K73"/>
     </row>
@@ -5226,31 +5214,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C74" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D74" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G74" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H74" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J74" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K74"/>
     </row>
@@ -5259,31 +5247,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C75" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D75" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G75" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="H75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I75" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J75" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K75"/>
     </row>
@@ -5292,31 +5280,31 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C76" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D76" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G76" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H76" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J76" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K76"/>
     </row>
@@ -5325,31 +5313,31 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C77" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D77" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G77" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H77" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I77" t="s">
+        <v>134</v>
+      </c>
+      <c r="J77" t="s">
         <v>137</v>
-      </c>
-      <c r="J77" t="s">
-        <v>140</v>
       </c>
       <c r="K77"/>
     </row>
@@ -5358,31 +5346,31 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C78" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G78" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I78" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K78"/>
     </row>
@@ -5391,31 +5379,31 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C79" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D79" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G79" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H79" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I79" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J79" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K79"/>
     </row>
@@ -5424,31 +5412,31 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C80" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D80" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G80" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H80" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I80" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J80" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K80"/>
     </row>
@@ -5457,31 +5445,31 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C81" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D81" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G81" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J81" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K81"/>
     </row>
@@ -5490,31 +5478,31 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C82" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D82" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G82" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H82" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I82" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J82" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K82"/>
     </row>
@@ -5523,31 +5511,31 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D83" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G83" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H83" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K83"/>
     </row>
@@ -5556,31 +5544,31 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C84" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D84" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G84" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I84" t="s">
+        <v>149</v>
+      </c>
+      <c r="J84" t="s">
         <v>152</v>
-      </c>
-      <c r="J84" t="s">
-        <v>155</v>
       </c>
       <c r="K84"/>
     </row>
@@ -5589,31 +5577,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C85" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="D85" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G85" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H85" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K85"/>
     </row>
@@ -5622,31 +5610,31 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C86" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D86" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G86" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I86" t="s">
+        <v>154</v>
+      </c>
+      <c r="J86" t="s">
         <v>157</v>
-      </c>
-      <c r="J86" t="s">
-        <v>160</v>
       </c>
       <c r="K86"/>
     </row>
@@ -5655,31 +5643,31 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C87" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D87" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G87" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I87" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K87"/>
     </row>
@@ -5688,31 +5676,31 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C88" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="D88" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G88" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I88" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J88" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K88"/>
     </row>
@@ -5721,31 +5709,31 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C89" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D89" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G89" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K89"/>
     </row>
@@ -5754,31 +5742,31 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C90" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D90" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G90" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I90" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K90"/>
     </row>
@@ -5787,31 +5775,31 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C91" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D91" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G91" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H91" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I91" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K91"/>
     </row>
@@ -5820,31 +5808,31 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C92" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G92" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K92"/>
     </row>
@@ -5853,31 +5841,31 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C93" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D93" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G93" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I93" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K93"/>
     </row>
@@ -5886,31 +5874,31 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C94" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D94" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G94" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I94" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K94"/>
     </row>
@@ -5919,31 +5907,31 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C95" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D95" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G95" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I95" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K95"/>
     </row>
@@ -5952,31 +5940,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C96" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D96" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G96" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I96" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K96"/>
     </row>
@@ -5985,31 +5973,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C97" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="D97" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G97" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I97" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K97"/>
     </row>
@@ -6018,31 +6006,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C98" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D98" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G98" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K98"/>
     </row>
@@ -6051,31 +6039,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C99" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D99" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G99" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I99" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K99"/>
     </row>
@@ -6084,31 +6072,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C100" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="D100" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G100" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K100"/>
     </row>
@@ -6117,31 +6105,31 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C101" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="D101" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G101" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I101" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K101"/>
     </row>
@@ -6150,31 +6138,31 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C102" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D102" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G102" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I102" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K102"/>
     </row>
@@ -6183,31 +6171,31 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C103" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D103" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G103" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I103" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K103"/>
     </row>
@@ -6216,31 +6204,31 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C104" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D104" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G104" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K104"/>
     </row>
@@ -6249,31 +6237,31 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C105" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D105" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G105" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J105" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K105"/>
     </row>
@@ -6282,31 +6270,31 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C106" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D106" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G106" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I106" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K106"/>
     </row>
@@ -6315,31 +6303,31 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C107" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D107" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G107" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I107" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J107" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K107"/>
     </row>
@@ -6348,31 +6336,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C108" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D108" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G108" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I108" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K108"/>
     </row>
@@ -6381,31 +6369,31 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C109" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D109" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G109" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H109" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I109" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K109"/>
     </row>
@@ -6414,31 +6402,31 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C110" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="D110" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G110" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K110"/>
     </row>
@@ -6447,31 +6435,31 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C111" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D111" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G111" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K111"/>
     </row>
@@ -6480,31 +6468,31 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C112" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D112" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G112" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I112" t="s">
+        <v>207</v>
+      </c>
+      <c r="J112" t="s">
         <v>210</v>
-      </c>
-      <c r="J112" t="s">
-        <v>213</v>
       </c>
       <c r="K112"/>
     </row>
@@ -6513,31 +6501,31 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C113" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D113" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G113" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I113" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K113"/>
     </row>
@@ -6546,31 +6534,31 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C114" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D114" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G114" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I114" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K114"/>
     </row>
@@ -6579,31 +6567,31 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C115" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D115" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G115" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I115" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K115"/>
     </row>
@@ -6612,31 +6600,31 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C116" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D116" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G116" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I116" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K116"/>
     </row>
@@ -6645,31 +6633,31 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C117" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D117" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G117" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K117"/>
     </row>
@@ -6678,31 +6666,31 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C118" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D118" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G118" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I118" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J118" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K118"/>
     </row>
@@ -6711,31 +6699,31 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="C119" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D119" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>741</v>
+        <v>345</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G119" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I119" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K119"/>
     </row>
@@ -6744,31 +6732,31 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C120" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D120" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G120" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K120"/>
     </row>
@@ -6777,31 +6765,31 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C121" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D121" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G121" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I121" t="s">
+        <v>224</v>
+      </c>
+      <c r="J121" t="s">
         <v>227</v>
-      </c>
-      <c r="J121" t="s">
-        <v>230</v>
       </c>
       <c r="K121"/>
     </row>
@@ -6810,31 +6798,31 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C122" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D122" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G122" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J122" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K122"/>
     </row>
@@ -6843,31 +6831,31 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C123" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D123" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="G123" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K123"/>
     </row>
@@ -6876,31 +6864,31 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C124" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="D124" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G124" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K124"/>
     </row>
@@ -6909,31 +6897,31 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C125" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D125" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G125" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I125" t="s">
+        <v>233</v>
+      </c>
+      <c r="J125" t="s">
         <v>236</v>
-      </c>
-      <c r="J125" t="s">
-        <v>239</v>
       </c>
       <c r="K125"/>
     </row>
@@ -6942,31 +6930,31 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C126" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D126" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G126" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H126" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="I126" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J126" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="K126"/>
     </row>
@@ -6975,31 +6963,31 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C127" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D127" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G127" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H127" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I127" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K127"/>
     </row>
@@ -7008,31 +6996,31 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C128" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D128" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G128" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H128" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I128" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K128"/>
     </row>
@@ -7041,31 +7029,31 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C129" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D129" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G129" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H129" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I129" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K129"/>
     </row>
@@ -7074,31 +7062,31 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C130" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="D130" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G130" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H130" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I130" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J130" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K130"/>
     </row>
@@ -7107,31 +7095,31 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C131" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D131" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G131" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I131" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J131" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K131"/>
     </row>
@@ -7140,31 +7128,31 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C132" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D132" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G132" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I132" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K132"/>
     </row>
@@ -7173,31 +7161,31 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C133" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D133" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G133" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I133" t="s">
+        <v>246</v>
+      </c>
+      <c r="J133" t="s">
         <v>249</v>
-      </c>
-      <c r="J133" t="s">
-        <v>252</v>
       </c>
       <c r="K133"/>
     </row>
@@ -7206,31 +7194,31 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C134" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D134" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G134" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H134" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I134" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J134" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K134"/>
     </row>
@@ -7239,31 +7227,31 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C135" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D135" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G135" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H135" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I135" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J135" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K135"/>
     </row>
@@ -7272,31 +7260,31 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C136" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D136" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G136" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H136" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I136" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J136" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K136"/>
     </row>
@@ -7305,31 +7293,31 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C137" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D137" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G137" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K137"/>
     </row>
@@ -7338,31 +7326,31 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C138" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D138" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G138" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H138" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I138" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K138"/>
     </row>
@@ -7371,31 +7359,31 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C139" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D139" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G139" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I139" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K139"/>
     </row>
@@ -7404,31 +7392,31 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C140" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D140" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G140" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H140" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I140" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K140"/>
     </row>
@@ -7437,31 +7425,31 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C141" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D141" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G141" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I141" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J141" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K141"/>
     </row>
@@ -7470,31 +7458,31 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C142" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D142" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G142" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I142" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J142" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K142"/>
     </row>
@@ -7503,31 +7491,31 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C143" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D143" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G143" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K143"/>
     </row>
@@ -7536,31 +7524,31 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C144" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D144" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G144" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H144" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I144" t="s">
+        <v>267</v>
+      </c>
+      <c r="J144" t="s">
         <v>270</v>
-      </c>
-      <c r="J144" t="s">
-        <v>273</v>
       </c>
       <c r="K144"/>
     </row>
@@ -7569,31 +7557,31 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C145" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D145" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G145" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H145" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I145" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K145"/>
     </row>
@@ -7602,31 +7590,31 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C146" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D146" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G146" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H146" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I146" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K146"/>
     </row>
@@ -7635,31 +7623,31 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C147" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D147" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G147" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I147" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K147"/>
     </row>
@@ -7668,31 +7656,31 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C148" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D148" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G148" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H148" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I148" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K148"/>
     </row>
@@ -7701,31 +7689,31 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C149" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D149" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G149" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H149" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I149" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K149"/>
     </row>
@@ -7734,31 +7722,31 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C150" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D150" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G150" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H150" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K150"/>
     </row>
@@ -7767,31 +7755,31 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C151" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D151" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G151" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I151" t="s">
+        <v>282</v>
+      </c>
+      <c r="J151" t="s">
         <v>285</v>
-      </c>
-      <c r="J151" t="s">
-        <v>288</v>
       </c>
       <c r="K151"/>
     </row>
@@ -7800,31 +7788,31 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C152" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D152" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G152" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I152" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K152"/>
     </row>
@@ -7833,31 +7821,31 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C153" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D153" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G153" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I153" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K153"/>
     </row>
@@ -7866,31 +7854,31 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C154" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D154" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G154" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I154" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J154" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K154"/>
     </row>
@@ -7899,31 +7887,31 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C155" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D155" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G155" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I155" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J155" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K155"/>
     </row>
@@ -7932,31 +7920,31 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C156" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D156" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G156" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J156" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K156"/>
     </row>
@@ -7965,31 +7953,31 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C157" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D157" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G157" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H157" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I157" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J157" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K157"/>
     </row>
@@ -7998,31 +7986,31 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C158" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D158" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G158" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H158" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I158" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J158" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K158"/>
     </row>
@@ -8031,31 +8019,31 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C159" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D159" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G159" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H159" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I159" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J159" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K159"/>
     </row>
@@ -8064,31 +8052,31 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C160" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D160" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G160" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H160" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I160" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J160" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K160"/>
     </row>
@@ -8097,31 +8085,31 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C161" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D161" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G161" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H161" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I161" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J161" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K161"/>
     </row>
@@ -8130,31 +8118,31 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C162" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D162" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G162" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H162" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I162" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J162" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K162"/>
     </row>
@@ -8163,31 +8151,31 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C163" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D163" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G163" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H163" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I163" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J163" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K163"/>
     </row>
@@ -8196,31 +8184,31 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C164" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D164" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G164" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H164" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I164" t="s">
+        <v>301</v>
+      </c>
+      <c r="J164" t="s">
         <v>304</v>
-      </c>
-      <c r="J164" t="s">
-        <v>307</v>
       </c>
       <c r="K164"/>
     </row>
@@ -8229,31 +8217,31 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C165" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D165" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G165" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H165" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I165" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J165" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K165"/>
     </row>
@@ -8262,31 +8250,31 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C166" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D166" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G166" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H166" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I166" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J166" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K166"/>
     </row>
@@ -8295,31 +8283,31 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C167" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D167" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G167" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H167" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I167" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J167" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K167"/>
     </row>
@@ -8328,31 +8316,31 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C168" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D168" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G168" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H168" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I168" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J168" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K168"/>
     </row>
@@ -8361,31 +8349,31 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C169" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D169" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G169" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H169" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I169" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J169" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K169"/>
     </row>
@@ -8394,31 +8382,31 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C170" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D170" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G170" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H170" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I170" t="s">
+        <v>310</v>
+      </c>
+      <c r="J170" t="s">
         <v>313</v>
-      </c>
-      <c r="J170" t="s">
-        <v>316</v>
       </c>
       <c r="K170"/>
     </row>
@@ -8427,31 +8415,31 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C171" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D171" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G171" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H171" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I171" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J171" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K171"/>
     </row>
@@ -8460,31 +8448,31 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C172" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D172" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G172" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H172" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I172" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J172" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K172"/>
     </row>
@@ -8493,31 +8481,31 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C173" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D173" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G173" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H173" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I173" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J173" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K173"/>
     </row>
@@ -8526,31 +8514,31 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C174" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D174" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G174" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H174" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I174" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J174" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K174"/>
     </row>
@@ -8559,31 +8547,31 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C175" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D175" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G175" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H175" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I175" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J175" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K175"/>
     </row>
@@ -8592,31 +8580,31 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C176" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D176" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H176" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I176" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J176" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K176"/>
     </row>
@@ -8625,31 +8613,31 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C177" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D177" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G177" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H177" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I177" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J177" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K177"/>
     </row>
@@ -8658,31 +8646,31 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C178" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D178" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G178" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H178" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I178" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J178" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K178"/>
     </row>
@@ -8691,31 +8679,31 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C179" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D179" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H179" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I179" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J179" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K179"/>
     </row>
@@ -8724,31 +8712,31 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C180" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D180" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G180" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H180" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I180" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J180" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K180"/>
     </row>
@@ -8757,31 +8745,31 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C181" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D181" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G181" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H181" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I181" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J181" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K181"/>
     </row>
@@ -8790,31 +8778,31 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C182" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D182" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H182" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I182" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J182" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K182"/>
     </row>
@@ -8823,31 +8811,31 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C183" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D183" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G183" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H183" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I183" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J183" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K183"/>
     </row>
@@ -8856,31 +8844,31 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C184" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D184" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G184" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H184" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I184" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J184" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K184"/>
     </row>
@@ -8889,31 +8877,31 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C185" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="D185" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G185" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H185" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I185" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J185" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K185"/>
     </row>
@@ -8922,31 +8910,31 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C186" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D186" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G186" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H186" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I186" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J186" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K186"/>
     </row>
@@ -8955,31 +8943,31 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C187" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D187" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G187" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H187" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I187" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J187" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K187"/>
     </row>
@@ -8988,31 +8976,31 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="C188" t="s">
+        <v>708</v>
+      </c>
+      <c r="D188" t="s">
         <v>716</v>
       </c>
-      <c r="D188" t="s">
-        <v>724</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G188" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H188" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I188" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J188" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K188"/>
     </row>
@@ -9021,31 +9009,31 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C189" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D189" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G189" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H189" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I189" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J189" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K189"/>
     </row>
@@ -9063,128 +9051,135 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="75.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>386</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B7" t="s">
-        <v>762</v>
+        <v>751</v>
+      </c>
+      <c r="C7" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>755</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>1</v>
+        <v>753</v>
       </c>
       <c r="B10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C10" t="s">
         <v>378</v>
-      </c>
-      <c r="C10" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>2</v>
+        <v>754</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>757</v>
       </c>
       <c r="C11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
